--- a/public/import/template/sppt.xlsx
+++ b/public/import/template/sppt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\7. Open Desa\Aplikasi\pbb_desa\public\import\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80222B8B-E240-4B2A-8577-A8139B8793F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D389BA-B526-4F0A-98ED-CB077DB90A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-1335" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rayon" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="SPPT" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SPPT!$T$2:$T$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SPPT!$S$2:$S$31</definedName>
   </definedNames>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
@@ -42,7 +42,7 @@
     <author>ASUS</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{33529EAB-30E7-4DA1-8A15-7F74EB837FE1}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A7877569-24CB-4FFF-B1B1-D39CA1903BC5}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="148">
   <si>
     <t>010</t>
   </si>
@@ -81,9 +81,6 @@
     <t>020</t>
   </si>
   <si>
-    <t>Terhutang</t>
-  </si>
-  <si>
     <t>no_sppt</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>nilai_pagu_pajak</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>nama_rayon</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
   </si>
   <si>
     <t>019</t>
-  </si>
-  <si>
-    <t>Lunas</t>
   </si>
   <si>
     <t>021</t>
@@ -877,10 +868,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -888,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -896,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -904,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -927,13 +918,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -941,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -955,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -966,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -986,10 +977,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1023,19 +1014,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1043,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1060,10 +1051,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -1077,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1094,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -1111,10 +1102,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -1128,10 +1119,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -1145,10 +1136,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -1162,10 +1153,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -1179,10 +1170,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -1196,10 +1187,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -1213,10 +1204,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -1230,10 +1221,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -1247,10 +1238,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
@@ -1264,10 +1255,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -1281,16 +1272,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1298,16 +1289,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
         <v>116</v>
-      </c>
-      <c r="E17" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1315,10 +1306,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -1332,10 +1323,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -1349,10 +1340,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -1366,10 +1357,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -1383,10 +1374,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -1400,13 +1391,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
@@ -1417,10 +1408,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
@@ -1434,10 +1425,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
@@ -1451,10 +1442,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
@@ -1470,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1493,81 +1484,77 @@
     <col min="16" max="16" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1576,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -1620,19 +1607,16 @@
       <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
-      </c>
-      <c r="U2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1641,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -1683,21 +1667,18 @@
         <v>161240</v>
       </c>
       <c r="S3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3">
+        <v>30</v>
+      </c>
+      <c r="T3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1706,13 +1687,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
@@ -1730,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>200000</v>
@@ -1750,19 +1731,16 @@
       <c r="S4" t="s">
         <v>30</v>
       </c>
-      <c r="T4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4">
+      <c r="T4">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1771,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
@@ -1795,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>200000</v>
@@ -1813,21 +1791,18 @@
         <v>179069</v>
       </c>
       <c r="S5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5">
+        <v>30</v>
+      </c>
+      <c r="T5">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -1836,13 +1811,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
         <v>2</v>
@@ -1860,7 +1835,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>200000</v>
@@ -1880,19 +1855,16 @@
       <c r="S6" t="s">
         <v>30</v>
       </c>
-      <c r="T6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6">
+      <c r="T6">
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -1901,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
@@ -1925,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>200000</v>
@@ -1945,19 +1917,16 @@
       <c r="S7" t="s">
         <v>30</v>
       </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7">
+      <c r="T7">
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -1966,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -2010,19 +1979,16 @@
       <c r="S8" t="s">
         <v>30</v>
       </c>
-      <c r="T8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8">
+      <c r="T8">
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -2031,13 +1997,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
@@ -2075,19 +2041,16 @@
       <c r="S9" t="s">
         <v>30</v>
       </c>
-      <c r="T9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9">
+      <c r="T9">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2096,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
@@ -2140,19 +2103,16 @@
       <c r="S10" t="s">
         <v>30</v>
       </c>
-      <c r="T10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10">
+      <c r="T10">
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2161,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
         <v>2</v>
@@ -2205,19 +2165,16 @@
       <c r="S11" t="s">
         <v>30</v>
       </c>
-      <c r="T11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11">
+      <c r="T11">
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2226,13 +2183,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
         <v>2</v>
@@ -2270,19 +2227,16 @@
       <c r="S12" t="s">
         <v>30</v>
       </c>
-      <c r="T12" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12">
+      <c r="T12">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -2291,13 +2245,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
         <v>2</v>
@@ -2335,19 +2289,16 @@
       <c r="S13" t="s">
         <v>30</v>
       </c>
-      <c r="T13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13">
+      <c r="T13">
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -2356,13 +2307,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
         <v>2</v>
@@ -2398,21 +2349,18 @@
         <v>90748</v>
       </c>
       <c r="S14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14">
+        <v>30</v>
+      </c>
+      <c r="T14">
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -2421,13 +2369,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
         <v>2</v>
@@ -2465,19 +2413,16 @@
       <c r="S15" t="s">
         <v>30</v>
       </c>
-      <c r="T15" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15">
+      <c r="T15">
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2486,13 +2431,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
         <v>2</v>
@@ -2530,19 +2475,16 @@
       <c r="S16" t="s">
         <v>30</v>
       </c>
-      <c r="T16" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16">
+      <c r="T16">
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2551,13 +2493,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
         <v>2</v>
@@ -2595,19 +2537,16 @@
       <c r="S17" t="s">
         <v>30</v>
       </c>
-      <c r="T17" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17">
+      <c r="T17">
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2616,13 +2555,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
         <v>2</v>
@@ -2660,19 +2599,16 @@
       <c r="S18" t="s">
         <v>30</v>
       </c>
-      <c r="T18" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18">
+      <c r="T18">
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -2681,19 +2617,19 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -2723,21 +2659,18 @@
         <v>90348</v>
       </c>
       <c r="S19" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19">
+        <v>30</v>
+      </c>
+      <c r="T19">
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -2746,19 +2679,19 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
         <v>116</v>
-      </c>
-      <c r="I20" t="s">
-        <v>119</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -2790,19 +2723,16 @@
       <c r="S20" t="s">
         <v>30</v>
       </c>
-      <c r="T20" t="s">
-        <v>33</v>
-      </c>
-      <c r="U20">
+      <c r="T20">
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -2811,13 +2741,13 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s">
         <v>2</v>
@@ -2855,19 +2785,16 @@
       <c r="S21" t="s">
         <v>30</v>
       </c>
-      <c r="T21" t="s">
-        <v>33</v>
-      </c>
-      <c r="U21">
+      <c r="T21">
         <v>2022</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -2876,13 +2803,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
         <v>2</v>
@@ -2920,19 +2847,16 @@
       <c r="S22" t="s">
         <v>30</v>
       </c>
-      <c r="T22" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22">
+      <c r="T22">
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -2941,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
         <v>2</v>
@@ -2985,19 +2909,16 @@
       <c r="S23" t="s">
         <v>30</v>
       </c>
-      <c r="T23" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23">
+      <c r="T23">
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -3006,13 +2927,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
         <v>2</v>
@@ -3030,7 +2951,7 @@
         <v>4</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>200000</v>
@@ -3050,34 +2971,31 @@
       <c r="S24" t="s">
         <v>30</v>
       </c>
-      <c r="T24" t="s">
-        <v>33</v>
-      </c>
-      <c r="U24">
+      <c r="T24">
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
         <v>2</v>
@@ -3101,36 +3019,33 @@
         <v>20200</v>
       </c>
       <c r="S25" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25" t="s">
-        <v>33</v>
-      </c>
-      <c r="U25">
+        <v>29</v>
+      </c>
+      <c r="T25">
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H26" t="s">
         <v>2</v>
@@ -3166,39 +3081,36 @@
         <v>97748</v>
       </c>
       <c r="S26" t="s">
-        <v>30</v>
-      </c>
-      <c r="T26" t="s">
-        <v>33</v>
-      </c>
-      <c r="U26">
+        <v>29</v>
+      </c>
+      <c r="T26">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
         <v>3</v>
@@ -3213,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="M27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>200000</v>
@@ -3231,36 +3143,33 @@
         <v>62200</v>
       </c>
       <c r="S27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T27" t="s">
-        <v>33</v>
-      </c>
-      <c r="U27">
+        <v>29</v>
+      </c>
+      <c r="T27">
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H28" t="s">
         <v>2</v>
@@ -3296,36 +3205,33 @@
         <v>77420</v>
       </c>
       <c r="S28" t="s">
-        <v>30</v>
-      </c>
-      <c r="T28" t="s">
-        <v>33</v>
-      </c>
-      <c r="U28">
+        <v>29</v>
+      </c>
+      <c r="T28">
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
         <v>2</v>
@@ -3361,36 +3267,33 @@
         <v>143343</v>
       </c>
       <c r="S29" t="s">
-        <v>30</v>
-      </c>
-      <c r="T29" t="s">
-        <v>33</v>
-      </c>
-      <c r="U29">
+        <v>29</v>
+      </c>
+      <c r="T29">
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H30" t="s">
         <v>2</v>
@@ -3426,21 +3329,18 @@
         <v>76420</v>
       </c>
       <c r="S30" t="s">
-        <v>30</v>
-      </c>
-      <c r="T30" t="s">
-        <v>32</v>
-      </c>
-      <c r="U30">
+        <v>29</v>
+      </c>
+      <c r="T30">
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -3449,13 +3349,13 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H31" t="s">
         <v>2</v>
@@ -3491,12 +3391,9 @@
         <v>77020</v>
       </c>
       <c r="S31" t="s">
-        <v>30</v>
-      </c>
-      <c r="T31" t="s">
-        <v>34</v>
-      </c>
-      <c r="U31">
+        <v>31</v>
+      </c>
+      <c r="T31">
         <v>2022</v>
       </c>
     </row>
